--- a/Artefacts/Test-Cases/Тест кейсы Аквариум.xlsx
+++ b/Artefacts/Test-Cases/Тест кейсы Аквариум.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A988A13A-F7D6-49BD-B63A-511DF86ED0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ABDF3E-9D74-4C66-9967-246A4B1C9830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="1548" windowWidth="26892" windowHeight="14808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -398,6 +398,36 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>Аквариум имеет длину 60 см</t>
+  </si>
+  <si>
+    <t>Измерить длину стороны А</t>
+  </si>
+  <si>
+    <t>Длина аквариума составляет 60 см</t>
+  </si>
+  <si>
+    <t>Аквариум имеет ширину 30 см</t>
+  </si>
+  <si>
+    <t>Ширина аквариума составляет 30 см</t>
+  </si>
+  <si>
+    <t>Аквариум имеет высоту 40 см</t>
+  </si>
+  <si>
+    <t>Высота аквариума составляет 40 см</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -965,6 +995,288 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,288 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,137 +1694,137 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="121"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="6" spans="1:11" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="121"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="69" t="e" vm="1">
+      <c r="B7" s="122" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="70"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="70"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="123"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="70"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="123"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="70"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="123"/>
     </row>
     <row r="11" spans="1:11" ht="275.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="70"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="123"/>
     </row>
     <row r="12" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
@@ -1811,28 +1841,28 @@
     </row>
     <row r="13" spans="1:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="1">
         <v>1</v>
       </c>
@@ -1842,82 +1872,82 @@
       <c r="G14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="76" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="78"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="74"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="78"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="78"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="78"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="75"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="79"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="50"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="74"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="1">
         <v>1</v>
       </c>
@@ -1927,18 +1957,18 @@
       <c r="G19" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="76" t="s">
+      <c r="H19" s="43"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="78"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="1">
         <v>2</v>
       </c>
@@ -1948,65 +1978,65 @@
       <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="78"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="78"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="1">
         <v>4</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="78"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="75"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="17"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="79"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="40"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
@@ -2014,18 +2044,18 @@
         <v>27</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="45" t="s">
+      <c r="H24" s="74"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="42"/>
+      <c r="K24" s="109"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="1">
         <v>2</v>
       </c>
@@ -2033,16 +2063,16 @@
         <v>28</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="45"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="1">
         <v>3</v>
       </c>
@@ -2052,50 +2082,50 @@
       <c r="G26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="40"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="18"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="41"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="1">
         <v>5</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="44"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="39"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="1">
         <v>1</v>
       </c>
@@ -2103,18 +2133,18 @@
         <v>32</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="45" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K29" s="42"/>
+      <c r="K29" s="109"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="1">
         <v>2</v>
       </c>
@@ -2124,16 +2154,16 @@
       <c r="G30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="1">
         <v>3</v>
       </c>
@@ -2141,16 +2171,16 @@
         <v>33</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="1">
         <v>4</v>
       </c>
@@ -2160,1816 +2190,2061 @@
       <c r="G32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="1">
         <v>5</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="44"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="122"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="123"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="1">
         <v>3</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="123"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="123"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="45"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="1">
         <v>5</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="124"/>
-    </row>
-    <row r="39" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="107" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
+      <c r="B39" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="126"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="74"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="122"/>
+      <c r="K39" s="109"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="1">
         <v>2</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="123"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="45"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="18"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="123"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="123"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="1">
         <v>5</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="124"/>
-    </row>
-    <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="107" t="s">
+      <c r="G43" s="20"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="110"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="B44" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="74"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="126"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="122"/>
+      <c r="K44" s="109"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="123"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="18"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="123"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="1">
         <v>4</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="123"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="108"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="1">
         <v>5</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="124"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="39"/>
+      <c r="B49" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="60"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="42"/>
+      <c r="K49" s="63"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="40"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="43"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="40"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="1">
         <v>3</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="18"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="43"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="1">
         <v>4</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="43"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="41"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="1">
         <v>5</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="44"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
+      <c r="H53" s="62"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="65"/>
+    </row>
+    <row r="54" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="39"/>
+      <c r="B54" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="42"/>
+        <v>86</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="63"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="40"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="18"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="43"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="40"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
       <c r="E56" s="1">
         <v>3</v>
       </c>
       <c r="F56" s="15"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="43"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="40"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
       <c r="E57" s="1">
         <v>4</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="43"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="64"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="41"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="1">
         <v>5</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="44"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="H58" s="62"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="65"/>
+    </row>
+    <row r="59" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="60"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="K59" s="42"/>
+      <c r="K59" s="63"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="40"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="18"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="43"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="40"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="18"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="43"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="67"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="31"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="40"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
       <c r="E62" s="1">
         <v>4</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="18"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="43"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="41"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="1">
         <v>5</v>
       </c>
       <c r="F63" s="15"/>
       <c r="G63" s="18"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="44"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="65"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="39"/>
+      <c r="B64" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="57"/>
       <c r="E64" s="1">
         <v>1</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K64" s="42"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="82"/>
+        <v>37</v>
+      </c>
+      <c r="H64" s="74"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="109"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="69"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="1">
         <v>2</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="18"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="43"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="82"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="45"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="69"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="58"/>
       <c r="E66" s="1">
         <v>3</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="18"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="43"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="31"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="82"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="69"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="58"/>
       <c r="E67" s="1">
         <v>4</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="18"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="43"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="83"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="45"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="70"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="1">
         <v>5</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="18"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="44"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+      <c r="H68" s="75"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="110"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="39"/>
+      <c r="B69" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="57"/>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K69" s="42"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="31"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="82"/>
+        <v>37</v>
+      </c>
+      <c r="H69" s="74"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="109"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="69"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="58"/>
       <c r="E70" s="1">
         <v>2</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="18"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="43"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="31"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="82"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="69"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="58"/>
       <c r="E71" s="1">
         <v>3</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="43"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="31"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="82"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="69"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="58"/>
       <c r="E72" s="1">
         <v>4</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="18"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="43"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="83"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="70"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="1">
         <v>5</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="44"/>
-    </row>
-    <row r="74" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+      <c r="H73" s="75"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="110"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="39"/>
+      <c r="B74" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="74"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74" s="36"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H74" s="74"/>
+      <c r="I74" s="109"/>
+      <c r="J74" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K74" s="42"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="31"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="82"/>
+      <c r="K74" s="109"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="69"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="58"/>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="18"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="43"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="31"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="82"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="45"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="69"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="58"/>
       <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="18"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="43"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="31"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="82"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="45"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="69"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="1">
         <v>4</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="18"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="43"/>
-    </row>
-    <row r="78" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="83"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="45"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="70"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="1">
         <v>5</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="18"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="44"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
+      <c r="H78" s="75"/>
+      <c r="I78" s="110"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="110"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="84"/>
-      <c r="J79" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K79" s="84"/>
-      <c r="L79" s="5"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="31"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="82"/>
+        <v>45</v>
+      </c>
+      <c r="H79" s="74"/>
+      <c r="I79" s="109"/>
+      <c r="J79" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="109"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="69"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="76"/>
       <c r="E80" s="1">
         <v>2</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="5"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="45"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="82"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="76"/>
       <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" s="15"/>
       <c r="G81" s="18"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="5"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="45"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="31"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="82"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="76"/>
       <c r="E82" s="1">
         <v>4</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="18"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="5"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="45"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="83"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="77"/>
       <c r="E83" s="1">
         <v>5</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="18"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="121"/>
-      <c r="L83" s="5"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="110"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="39"/>
+      <c r="B84" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="74"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="1">
         <v>1</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H84" s="36"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K84" s="84"/>
-      <c r="L84" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="H84" s="74"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K84" s="109"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="31"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="82"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="76"/>
       <c r="E85" s="1">
         <v>2</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="18"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="5"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="45"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="31"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="82"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="76"/>
       <c r="E86" s="1">
         <v>3</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="18"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="5"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="45"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="82"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="76"/>
       <c r="E87" s="1">
         <v>4</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="18"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="52"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="5"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="45"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="83"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="77"/>
       <c r="E88" s="1">
         <v>5</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="18"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="121"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="30" t="s">
+      <c r="H88" s="75"/>
+      <c r="I88" s="110"/>
+      <c r="J88" s="80"/>
+      <c r="K88" s="110"/>
+    </row>
+    <row r="89" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="39"/>
+      <c r="B89" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="1">
         <v>1</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" s="36"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H89" s="74"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K89" s="84"/>
-      <c r="L89" s="5"/>
+      <c r="K89" s="109"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="31"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="82"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="76"/>
       <c r="E90" s="1">
         <v>2</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="18"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="5"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="79"/>
+      <c r="K90" s="45"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="31"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="82"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="76"/>
       <c r="E91" s="1">
         <v>3</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="18"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="5"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="79"/>
+      <c r="K91" s="45"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="31"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="82"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="76"/>
       <c r="E92" s="1">
         <v>4</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="18"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="46"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="5"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="83"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="79"/>
+      <c r="K92" s="45"/>
+    </row>
+    <row r="93" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="70"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="77"/>
       <c r="E93" s="1">
         <v>5</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="18"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="121"/>
-      <c r="L93" s="5"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="110"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="39"/>
+      <c r="B94" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="74"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G94" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H94" s="36"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" s="84"/>
+      <c r="F94" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" s="74"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K94" s="30"/>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="31"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="82"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="76"/>
       <c r="E95" s="1">
         <v>2</v>
       </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="85"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="79"/>
+      <c r="K95" s="31"/>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="31"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="82"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="76"/>
       <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="85"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="79"/>
+      <c r="K96" s="31"/>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="31"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="82"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="72"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="76"/>
       <c r="E97" s="1">
         <v>4</v>
       </c>
-      <c r="F97" s="25"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="85"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="79"/>
+      <c r="K97" s="31"/>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="83"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="77"/>
       <c r="E98" s="1">
         <v>5</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="18"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="121"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="121"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="80"/>
+      <c r="K98" s="32"/>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="B99" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="39"/>
+      <c r="B99" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="74"/>
+      <c r="D99" s="57"/>
       <c r="E99" s="1">
         <v>1</v>
       </c>
-      <c r="F99" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H99" s="36"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="K99" s="84"/>
+      <c r="F99" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="30"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="31"/>
-      <c r="B100" s="34"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="82"/>
+      <c r="A100" s="69"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="76"/>
       <c r="E100" s="1">
         <v>2</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="46"/>
-      <c r="K100" s="85"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="31"/>
       <c r="L100" s="5"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="31"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="82"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="76"/>
       <c r="E101" s="1">
         <v>3</v>
       </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="85"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="31"/>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="31"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="82"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="76"/>
       <c r="E102" s="1">
         <v>4</v>
       </c>
-      <c r="F102" s="25"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="46"/>
-      <c r="K102" s="85"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="31"/>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="83"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="83"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="77"/>
       <c r="E103" s="1">
         <v>5</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="18"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="121"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="32"/>
       <c r="L103" s="5"/>
     </row>
-    <row r="104" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="30" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B104" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="39"/>
+      <c r="B104" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="74"/>
+      <c r="D104" s="57"/>
       <c r="E104" s="1">
         <v>1</v>
       </c>
-      <c r="F104" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H104" s="36"/>
-      <c r="I104" s="84"/>
-      <c r="J104" s="45" t="s">
+      <c r="F104" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H104" s="74"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K104" s="84"/>
+      <c r="K104" s="30"/>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="31"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="82"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="76"/>
       <c r="E105" s="1">
         <v>2</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="46"/>
-      <c r="K105" s="85"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="43"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="79"/>
+      <c r="K105" s="31"/>
       <c r="L105" s="5"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="31"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="82"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="76"/>
       <c r="E106" s="1">
         <v>3</v>
       </c>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="46"/>
-      <c r="K106" s="85"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="79"/>
+      <c r="K106" s="31"/>
       <c r="L106" s="5"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="31"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="82"/>
+      <c r="A107" s="69"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="76"/>
       <c r="E107" s="1">
         <v>4</v>
       </c>
-      <c r="F107" s="25"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="46"/>
-      <c r="K107" s="85"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="79"/>
+      <c r="K107" s="31"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
-      <c r="B108" s="35"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="83"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="73"/>
+      <c r="C108" s="75"/>
+      <c r="D108" s="77"/>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="18"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="85"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="80"/>
+      <c r="K108" s="32"/>
       <c r="L108" s="5"/>
     </row>
-    <row r="109" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="30" t="s">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="39"/>
+      <c r="B109" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="74"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="1">
         <v>1</v>
       </c>
-      <c r="F109" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H109" s="99"/>
-      <c r="I109" s="101"/>
-      <c r="J109" s="94" t="s">
+      <c r="F109" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" s="74"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="K109" s="101"/>
+      <c r="K109" s="30"/>
       <c r="L109" s="5"/>
     </row>
-    <row r="110" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="82"/>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="69"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="76"/>
       <c r="E110" s="1">
         <v>2</v>
       </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="95"/>
-      <c r="K110" s="102"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="31"/>
       <c r="L110" s="5"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="31"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="82"/>
+      <c r="A111" s="69"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="76"/>
       <c r="E111" s="1">
         <v>3</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="102"/>
-      <c r="J111" s="95"/>
-      <c r="K111" s="102"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="43"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="31"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="31"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="82"/>
+      <c r="A112" s="69"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="76"/>
       <c r="E112" s="1">
         <v>4</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="95"/>
-      <c r="K112" s="102"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="43"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="31"/>
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="31"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="82"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="77"/>
       <c r="E113" s="1">
         <v>5</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="103"/>
-      <c r="J113" s="95"/>
-      <c r="K113" s="103"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="75"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="29"/>
+      <c r="K113" s="32"/>
       <c r="L113" s="5"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="107" t="s">
+    <row r="114" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B114" s="104" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
+      <c r="B114" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="74"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="1">
         <v>1</v>
       </c>
-      <c r="F114" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G114" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H114" s="109"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="111" t="s">
+      <c r="F114" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="74"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K114" s="27"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="30"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="40"/>
-      <c r="D115" s="40"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="72"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="76"/>
       <c r="E115" s="1">
         <v>2</v>
       </c>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="99"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="112"/>
-      <c r="K115" s="28"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="31"/>
       <c r="L115" s="5"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="30"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="72"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="76"/>
       <c r="E116" s="1">
         <v>3</v>
       </c>
       <c r="F116" s="23"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="28"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="31"/>
+      <c r="J116" s="79"/>
+      <c r="K116" s="31"/>
       <c r="L116" s="5"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="30"/>
-      <c r="B117" s="105"/>
-      <c r="C117" s="40"/>
-      <c r="D117" s="40"/>
+      <c r="A117" s="69"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="76"/>
       <c r="E117" s="1">
         <v>4</v>
       </c>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="99"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="112"/>
-      <c r="K117" s="28"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="43"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="79"/>
+      <c r="K117" s="31"/>
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="108"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="77"/>
       <c r="E118" s="1">
         <v>5</v>
       </c>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="110"/>
-      <c r="I118" s="29"/>
-      <c r="J118" s="113"/>
-      <c r="K118" s="29"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="75"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="32"/>
       <c r="L118" s="5"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="107" t="s">
+    <row r="119" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="C119" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" s="39"/>
+      <c r="B119" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="74"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="1">
         <v>1</v>
       </c>
-      <c r="F119" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G119" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H119" s="109"/>
-      <c r="I119" s="117"/>
-      <c r="J119" s="119" t="s">
+      <c r="F119" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="74"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K119" s="92"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="5"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="30"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="76"/>
       <c r="E120" s="1">
         <v>2</v>
       </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="117"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="92"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+      <c r="H120" s="43"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="79"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="5"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="30"/>
-      <c r="B121" s="105"/>
-      <c r="C121" s="40"/>
-      <c r="D121" s="40"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="76"/>
       <c r="E121" s="1">
         <v>3</v>
       </c>
       <c r="F121" s="23"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="99"/>
-      <c r="I121" s="117"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="92"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="31"/>
+      <c r="J121" s="79"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="5"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="30"/>
-      <c r="B122" s="105"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
+      <c r="A122" s="69"/>
+      <c r="B122" s="72"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="76"/>
       <c r="E122" s="1">
         <v>4</v>
       </c>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="99"/>
-      <c r="I122" s="117"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="92"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="79"/>
+      <c r="K122" s="31"/>
+      <c r="L122" s="5"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="114"/>
-      <c r="B123" s="115"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="73"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="77"/>
       <c r="E123" s="1">
         <v>5</v>
       </c>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="116"/>
-      <c r="I123" s="118"/>
-      <c r="J123" s="120"/>
-      <c r="K123" s="93"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="107" t="s">
+      <c r="F123" s="15"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="75"/>
+      <c r="I123" s="31"/>
+      <c r="J123" s="80"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A124" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B124" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="39"/>
+      <c r="B124" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="74"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G124" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H124" s="90"/>
-      <c r="I124" s="92"/>
-      <c r="J124" s="94" t="s">
+      <c r="F124" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H124" s="88"/>
+      <c r="I124" s="100"/>
+      <c r="J124" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K124" s="92"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="30"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
+      <c r="K124" s="100"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="69"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="76"/>
       <c r="E125" s="1">
         <v>2</v>
       </c>
-      <c r="F125" s="22"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="95"/>
-      <c r="K125" s="92"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="104"/>
+      <c r="K125" s="101"/>
+      <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="30"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="76"/>
       <c r="E126" s="1">
         <v>3</v>
       </c>
-      <c r="F126" s="23"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="18"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="92"/>
-      <c r="J126" s="95"/>
-      <c r="K126" s="92"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="104"/>
+      <c r="K126" s="101"/>
+      <c r="L126" s="5"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="30"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="40"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="76"/>
       <c r="E127" s="1">
         <v>4</v>
       </c>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="95"/>
-      <c r="K127" s="92"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="99"/>
+      <c r="I127" s="101"/>
+      <c r="J127" s="104"/>
+      <c r="K127" s="101"/>
+      <c r="L127" s="5"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="114"/>
-      <c r="B128" s="88"/>
-      <c r="C128" s="89"/>
-      <c r="D128" s="89"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="76"/>
       <c r="E128" s="1">
         <v>5</v>
       </c>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="91"/>
-      <c r="I128" s="93"/>
-      <c r="J128" s="95"/>
-      <c r="K128" s="93"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="99"/>
+      <c r="I128" s="102"/>
+      <c r="J128" s="104"/>
+      <c r="K128" s="102"/>
+      <c r="L128" s="5"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="107" t="s">
+      <c r="A129" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B129" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" s="39"/>
-      <c r="D129" s="39"/>
+      <c r="B129" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
       <c r="E129" s="1">
         <v>1</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H129" s="90"/>
-      <c r="I129" s="92"/>
-      <c r="J129" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" s="87"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="92"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="5"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="30"/>
-      <c r="B130" s="105"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="40"/>
+      <c r="A130" s="52"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="58"/>
       <c r="E130" s="1">
         <v>2</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="92"/>
-      <c r="J130" s="97"/>
-      <c r="K130" s="92"/>
+      <c r="H130" s="88"/>
+      <c r="I130" s="128"/>
+      <c r="J130" s="107"/>
+      <c r="K130" s="128"/>
+      <c r="L130" s="5"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="30"/>
-      <c r="B131" s="105"/>
-      <c r="C131" s="40"/>
-      <c r="D131" s="40"/>
+      <c r="A131" s="52"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
       <c r="E131" s="1">
         <v>3</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="18"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="92"/>
-      <c r="J131" s="97"/>
-      <c r="K131" s="92"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="128"/>
+      <c r="J131" s="107"/>
+      <c r="K131" s="128"/>
+      <c r="L131" s="5"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="30"/>
-      <c r="B132" s="105"/>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="58"/>
       <c r="E132" s="1">
         <v>4</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="92"/>
-      <c r="J132" s="97"/>
-      <c r="K132" s="92"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="107"/>
+      <c r="K132" s="128"/>
+      <c r="L132" s="5"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="114"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="1">
         <v>5</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="93"/>
-      <c r="J133" s="98"/>
-      <c r="K133" s="93"/>
+      <c r="H133" s="105"/>
+      <c r="I133" s="129"/>
+      <c r="J133" s="108"/>
+      <c r="K133" s="129"/>
+      <c r="L133" s="5"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="5"/>
+      <c r="A134" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C134" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="57"/>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" s="87"/>
+      <c r="I134" s="90"/>
+      <c r="J134" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K134" s="94"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L135" s="5"/>
+      <c r="A135" s="52"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="1">
+        <v>2</v>
+      </c>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="88"/>
+      <c r="I135" s="90"/>
+      <c r="J135" s="78"/>
+      <c r="K135" s="94"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L136" s="5"/>
+      <c r="A136" s="52"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="23"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="88"/>
+      <c r="I136" s="90"/>
+      <c r="J136" s="78"/>
+      <c r="K136" s="94"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L137" s="5"/>
+      <c r="A137" s="52"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="1">
+        <v>4</v>
+      </c>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
+      <c r="H137" s="88"/>
+      <c r="I137" s="90"/>
+      <c r="J137" s="78"/>
+      <c r="K137" s="94"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L138" s="5"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
+      <c r="H138" s="89"/>
+      <c r="I138" s="91"/>
+      <c r="J138" s="93"/>
+      <c r="K138" s="95"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L139" s="5"/>
+      <c r="A139" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C139" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="57"/>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G139" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" s="96"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" s="94"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="5"/>
+      <c r="A140" s="52"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="1">
+        <v>2</v>
+      </c>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="94"/>
+      <c r="J140" s="104"/>
+      <c r="K140" s="94"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L141" s="5"/>
+      <c r="A141" s="52"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="1">
+        <v>3</v>
+      </c>
+      <c r="F141" s="23"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="74"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="104"/>
+      <c r="K141" s="94"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L142" s="5"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="112"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="1">
+        <v>4</v>
+      </c>
+      <c r="F142" s="23"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="74"/>
+      <c r="I142" s="94"/>
+      <c r="J142" s="104"/>
+      <c r="K142" s="94"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L143" s="5"/>
+      <c r="A143" s="84"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="86"/>
+      <c r="E143" s="1">
+        <v>5</v>
+      </c>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="97"/>
+      <c r="I143" s="95"/>
+      <c r="J143" s="104"/>
+      <c r="K143" s="95"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G144" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="H144" s="96"/>
+      <c r="I144" s="94"/>
+      <c r="J144" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K144" s="94"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="52"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="1">
+        <v>2</v>
+      </c>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="74"/>
+      <c r="I145" s="94"/>
+      <c r="J145" s="67"/>
+      <c r="K145" s="94"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="52"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="1">
+        <v>3</v>
+      </c>
+      <c r="F146" s="23"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="67"/>
+      <c r="K146" s="94"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="52"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="1">
+        <v>4</v>
+      </c>
+      <c r="F147" s="23"/>
+      <c r="G147" s="23"/>
+      <c r="H147" s="74"/>
+      <c r="I147" s="94"/>
+      <c r="J147" s="67"/>
+      <c r="K147" s="94"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="84"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
+      <c r="E148" s="1">
+        <v>5</v>
+      </c>
+      <c r="F148" s="23"/>
+      <c r="G148" s="23"/>
+      <c r="H148" s="97"/>
+      <c r="I148" s="95"/>
+      <c r="J148" s="98"/>
+      <c r="K148" s="95"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L158" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
-    <mergeCell ref="J84:J88"/>
-    <mergeCell ref="K84:K88"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
+  <mergeCells count="219">
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
@@ -3978,148 +4253,45 @@
     <mergeCell ref="I44:I48"/>
     <mergeCell ref="J44:J48"/>
     <mergeCell ref="K44:K48"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="H79:H83"/>
-    <mergeCell ref="I79:I83"/>
-    <mergeCell ref="J79:J83"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="J99:J103"/>
-    <mergeCell ref="K99:K103"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="K89:K93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="D94:D98"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="J94:J98"/>
-    <mergeCell ref="K94:K98"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="D119:D123"/>
-    <mergeCell ref="H119:H123"/>
-    <mergeCell ref="I119:I123"/>
-    <mergeCell ref="J119:J123"/>
-    <mergeCell ref="K119:K123"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="H129:H133"/>
-    <mergeCell ref="I129:I133"/>
-    <mergeCell ref="J129:J133"/>
-    <mergeCell ref="K129:K133"/>
-    <mergeCell ref="J104:J108"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="H109:H113"/>
-    <mergeCell ref="I109:I113"/>
-    <mergeCell ref="J109:J113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="J114:J118"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="J74:J78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="K104:K108"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="H124:H128"/>
-    <mergeCell ref="I124:I128"/>
-    <mergeCell ref="J124:J128"/>
-    <mergeCell ref="K124:K128"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="K109:K113"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="H99:H103"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="H104:H108"/>
-    <mergeCell ref="I104:I108"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D104:D108"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="I84:I88"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="C64:C68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="J64:J68"/>
-    <mergeCell ref="K64:K68"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="J69:J73"/>
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="H59:H63"/>
-    <mergeCell ref="I59:I63"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="D59:D63"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="B34:B38"/>
     <mergeCell ref="C34:C38"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="H34:H38"/>
     <mergeCell ref="I34:I38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="H29:H33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="K129:K133"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="I54:I58"/>
+    <mergeCell ref="J54:J58"/>
+    <mergeCell ref="K54:K58"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="J69:J73"/>
+    <mergeCell ref="K69:K73"/>
+    <mergeCell ref="J64:J68"/>
+    <mergeCell ref="K64:K68"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="B124:B128"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
@@ -4131,30 +4303,167 @@
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="K14:K18"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="I79:I83"/>
+    <mergeCell ref="J79:J83"/>
+    <mergeCell ref="K79:K83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="K84:K88"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="I84:I88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D119:D123"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A114:A118"/>
     <mergeCell ref="I114:I118"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="H99:H103"/>
+    <mergeCell ref="I99:I103"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="K89:K93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="K119:K123"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="C139:C143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="J139:J143"/>
+    <mergeCell ref="K139:K143"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="K124:K128"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="H119:H123"/>
+    <mergeCell ref="I119:I123"/>
+    <mergeCell ref="I129:I133"/>
+    <mergeCell ref="J119:J123"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="H124:H128"/>
+    <mergeCell ref="I124:I128"/>
+    <mergeCell ref="J124:J128"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="H129:H133"/>
+    <mergeCell ref="J129:J133"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="D134:D138"/>
+    <mergeCell ref="H134:H138"/>
+    <mergeCell ref="I134:I138"/>
+    <mergeCell ref="J134:J138"/>
+    <mergeCell ref="K134:K138"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="H144:H148"/>
+    <mergeCell ref="I144:I148"/>
+    <mergeCell ref="J144:J148"/>
+    <mergeCell ref="K144:K148"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="J94:J98"/>
+    <mergeCell ref="K94:K98"/>
+    <mergeCell ref="J114:J118"/>
     <mergeCell ref="K114:K118"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="D104:D108"/>
+    <mergeCell ref="H104:H108"/>
+    <mergeCell ref="I104:I108"/>
+    <mergeCell ref="J104:J108"/>
+    <mergeCell ref="K104:K108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="H109:H113"/>
+    <mergeCell ref="I109:I113"/>
+    <mergeCell ref="J109:J113"/>
+    <mergeCell ref="K109:K113"/>
+    <mergeCell ref="J99:J103"/>
+    <mergeCell ref="K99:K103"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="I59:I63"/>
     <mergeCell ref="J59:J63"/>
     <mergeCell ref="K59:K63"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="H54:H58"/>
-    <mergeCell ref="I54:I58"/>
-    <mergeCell ref="J54:J58"/>
-    <mergeCell ref="K54:K58"/>
     <mergeCell ref="J49:J53"/>
     <mergeCell ref="K49:K53"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="D94:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
